--- a/Sequences/Clustering Tests.xlsx
+++ b/Sequences/Clustering Tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordanbone/Documents/GitHub/IAV-Mach-Learning/Sequences/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0253F7E3-3030-F442-9B12-E38AB7D32FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{EB7458D0-6664-D54F-8A09-67FA3E123A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2800" yWindow="1640" windowWidth="27640" windowHeight="17500" activeTab="2" xr2:uid="{6CBF63CA-BD3B-944C-BCF0-B6B471EBB7A8}"/>
+    <workbookView xWindow="2800" yWindow="1640" windowWidth="27640" windowHeight="17500" xr2:uid="{6CBF63CA-BD3B-944C-BCF0-B6B471EBB7A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="5" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2629" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2630" uniqueCount="39">
   <si>
     <t>cov0</t>
   </si>
@@ -227,6 +227,9 @@
   </si>
   <si>
     <t>MAMMAL</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -934,8 +937,8 @@
   </sheetPr>
   <dimension ref="B1:AL31"/>
   <sheetViews>
-    <sheetView zoomScale="108" zoomScaleNormal="290" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="136" zoomScaleNormal="290" workbookViewId="0">
+      <selection activeCell="AN1" sqref="AN1:AN1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2497,8 +2500,8 @@
       <c r="Y16" s="7">
         <v>12</v>
       </c>
-      <c r="Z16" s="7">
-        <v>266</v>
+      <c r="Z16" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="AA16" s="7">
         <v>1558</v>
@@ -3828,8 +3831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5A124E7-779F-F549-8CDF-A91C6384728A}">
   <dimension ref="A1:F621"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A601" zoomScale="170" workbookViewId="0">
+      <selection activeCell="A621" sqref="A621"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
